--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/03.BaoGiaBH/BG210520_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/03.BaoGiaBH/BG210520_TarisHN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>VT_Module_SIM800C</t>
+  </si>
+  <si>
+    <t>Báo giá trên khách không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -640,26 +649,47 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,15 +718,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,35 +727,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,7 +1102,7 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1121,94 +1130,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="48" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1216,10 +1225,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="25"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1230,13 +1239,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1244,10 +1253,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1259,10 +1268,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1306,84 +1315,84 @@
       <c r="AA12" s="15"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="55">
         <v>1</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="56">
         <v>863586032924585</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="55">
         <v>1</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="58">
         <v>63000</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="58">
         <v>63000</v>
       </c>
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="55">
         <v>2</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="56">
         <v>864811037262677</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="55">
         <v>1</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="60">
         <v>275000</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="60">
         <v>275000</v>
       </c>
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="34">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="29">
         <f>SUM(J13:J14)</f>
         <v>338000</v>
       </c>
@@ -1404,10 +1413,12 @@
     </row>
     <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -1416,31 +1427,31 @@
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="24"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -1467,20 +1478,20 @@
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1552,6 +1563,8 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="E1:J2"/>
@@ -1568,8 +1581,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
